--- a/data/trans_orig/IP31A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP31A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE8D76B3-48BF-462F-8E1C-A5CA822AE47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A4A1CF-4DAD-4FF8-997E-CA0971982373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{38E654F8-F355-4D64-B2D1-3C99DB2ADAE4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4288FB11-554A-428E-9025-48632A899875}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,6 +70,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Menos de 1 vaso/taza</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
     <t>1 vaso/taza</t>
   </si>
   <si>
@@ -160,42 +190,147 @@
     <t>30,11%</t>
   </si>
   <si>
-    <t>Menos de 1 vaso/taza</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
     <t>24,64%</t>
   </si>
   <si>
@@ -229,9 +364,6 @@
     <t>42,87%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
     <t>43,9%</t>
   </si>
   <si>
@@ -277,136 +409,31 @@
     <t>20,64%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>22,38%</t>
@@ -490,36 +517,36 @@
     <t>21,96%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
     <t>19,56%</t>
   </si>
   <si>
@@ -601,31 +628,130 @@
     <t>31,42%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>26,16%</t>
@@ -700,130 +826,31 @@
     <t>17,39%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>22,3%</t>
@@ -898,36 +925,33 @@
     <t>19,93%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2015 (Tasa respuesta: 83,07%)</t>
   </si>
   <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
     <t>23,58%</t>
   </si>
   <si>
@@ -1009,28 +1033,124 @@
     <t>23,93%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
   </si>
   <si>
     <t>30,2%</t>
@@ -1105,124 +1225,22 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>26,33%</t>
@@ -1298,24 +1316,6 @@
   </si>
   <si>
     <t>13,68%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD0D20-280B-49AF-9C0C-EC6C2F029D79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A4EDD3-98B6-48B9-B106-A75C618C4BA7}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1825,10 +1825,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>31415</v>
+        <v>4591</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1840,10 +1840,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>28442</v>
+        <v>4019</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1855,10 +1855,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>59858</v>
+        <v>8610</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1876,10 +1876,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>81032</v>
+        <v>31415</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1891,10 +1891,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>87098</v>
+        <v>28442</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1906,10 +1906,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="N5" s="7">
-        <v>168130</v>
+        <v>59858</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1927,10 +1927,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>47342</v>
+        <v>81032</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1942,10 +1942,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="I6" s="7">
-        <v>37301</v>
+        <v>87098</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1957,10 +1957,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="N6" s="7">
-        <v>84643</v>
+        <v>168130</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1978,10 +1978,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>4591</v>
+        <v>47342</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1993,10 +1993,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>4019</v>
+        <v>37301</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2008,10 +2008,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="N7" s="7">
-        <v>8610</v>
+        <v>84643</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2082,10 +2082,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>61545</v>
+        <v>6439</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -2094,37 +2094,37 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7336</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7">
-        <v>141</v>
-      </c>
-      <c r="I9" s="7">
-        <v>96378</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7">
+        <v>21</v>
+      </c>
+      <c r="N9" s="7">
+        <v>13774</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7">
-        <v>231</v>
-      </c>
-      <c r="N9" s="7">
-        <v>157922</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,49 +2133,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>119052</v>
+        <v>44655</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>57</v>
+      </c>
+      <c r="I10" s="7">
+        <v>37804</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="7">
-        <v>154</v>
-      </c>
-      <c r="I10" s="7">
-        <v>102961</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>123</v>
+      </c>
+      <c r="N10" s="7">
+        <v>82459</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="7">
-        <v>335</v>
-      </c>
-      <c r="N10" s="7">
-        <v>222013</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,49 +2184,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7">
-        <v>59371</v>
+        <v>110909</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>157</v>
+      </c>
+      <c r="I11" s="7">
+        <v>106765</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="7">
-        <v>38</v>
-      </c>
-      <c r="I11" s="7">
-        <v>25520</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>326</v>
+      </c>
+      <c r="N11" s="7">
+        <v>217673</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="7">
-        <v>126</v>
-      </c>
-      <c r="N11" s="7">
-        <v>84890</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,49 +2235,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7">
-        <v>9800</v>
+        <v>38806</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>41</v>
+      </c>
+      <c r="I12" s="7">
+        <v>27798</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9698</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>100</v>
+      </c>
+      <c r="N12" s="7">
+        <v>66604</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="7">
-        <v>30</v>
-      </c>
-      <c r="N12" s="7">
-        <v>19498</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,10 +2286,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="D13" s="7">
-        <v>249768</v>
+        <v>200808</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2301,10 +2301,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="I13" s="7">
-        <v>234557</v>
+        <v>179703</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2316,10 +2316,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>722</v>
+        <v>570</v>
       </c>
       <c r="N13" s="7">
-        <v>484324</v>
+        <v>380510</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2333,55 +2333,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>44655</v>
+        <v>9800</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9698</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="7">
-        <v>57</v>
-      </c>
-      <c r="I14" s="7">
-        <v>37804</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>30</v>
+      </c>
+      <c r="N14" s="7">
+        <v>19498</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="7">
-        <v>123</v>
-      </c>
-      <c r="N14" s="7">
-        <v>82459</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,46 +2390,46 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>110909</v>
+        <v>61545</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>141</v>
+      </c>
+      <c r="I15" s="7">
+        <v>96378</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="7">
-        <v>157</v>
-      </c>
-      <c r="I15" s="7">
-        <v>106765</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>231</v>
+      </c>
+      <c r="N15" s="7">
+        <v>157922</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M15" s="7">
-        <v>326</v>
-      </c>
-      <c r="N15" s="7">
-        <v>217673</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>105</v>
@@ -2441,10 +2441,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="D16" s="7">
-        <v>38806</v>
+        <v>119052</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -2453,37 +2453,37 @@
         <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="7">
+        <v>154</v>
+      </c>
+      <c r="I16" s="7">
+        <v>102961</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="7">
-        <v>41</v>
-      </c>
-      <c r="I16" s="7">
-        <v>27798</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>335</v>
+      </c>
+      <c r="N16" s="7">
+        <v>222013</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="7">
-        <v>100</v>
-      </c>
-      <c r="N16" s="7">
-        <v>66604</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,25 +2492,25 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D17" s="7">
-        <v>6439</v>
+        <v>59371</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I17" s="7">
-        <v>7336</v>
+        <v>25520</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>117</v>
@@ -2522,10 +2522,10 @@
         <v>119</v>
       </c>
       <c r="M17" s="7">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="N17" s="7">
-        <v>13774</v>
+        <v>84890</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>120</v>
@@ -2543,10 +2543,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="D18" s="7">
-        <v>200808</v>
+        <v>249768</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2558,10 +2558,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="I18" s="7">
-        <v>179703</v>
+        <v>234557</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2573,10 +2573,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>570</v>
+        <v>722</v>
       </c>
       <c r="N18" s="7">
-        <v>380510</v>
+        <v>484324</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2596,10 +2596,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>137614</v>
+        <v>20830</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>123</v>
@@ -2611,10 +2611,10 @@
         <v>125</v>
       </c>
       <c r="H19" s="7">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>162624</v>
+        <v>21052</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>126</v>
@@ -2626,10 +2626,10 @@
         <v>128</v>
       </c>
       <c r="M19" s="7">
-        <v>443</v>
+        <v>64</v>
       </c>
       <c r="N19" s="7">
-        <v>300239</v>
+        <v>41882</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>129</v>
@@ -2647,10 +2647,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>472</v>
+        <v>203</v>
       </c>
       <c r="D20" s="7">
-        <v>310992</v>
+        <v>137614</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>132</v>
@@ -2662,10 +2662,10 @@
         <v>134</v>
       </c>
       <c r="H20" s="7">
-        <v>443</v>
+        <v>240</v>
       </c>
       <c r="I20" s="7">
-        <v>296824</v>
+        <v>162624</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>135</v>
@@ -2677,10 +2677,10 @@
         <v>137</v>
       </c>
       <c r="M20" s="7">
-        <v>915</v>
+        <v>443</v>
       </c>
       <c r="N20" s="7">
-        <v>607816</v>
+        <v>300239</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>138</v>
@@ -2698,10 +2698,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>218</v>
+        <v>472</v>
       </c>
       <c r="D21" s="7">
-        <v>145519</v>
+        <v>310992</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>141</v>
@@ -2713,10 +2713,10 @@
         <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>136</v>
+        <v>443</v>
       </c>
       <c r="I21" s="7">
-        <v>90618</v>
+        <v>296824</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>144</v>
@@ -2728,10 +2728,10 @@
         <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>354</v>
+        <v>915</v>
       </c>
       <c r="N21" s="7">
-        <v>236137</v>
+        <v>607816</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>147</v>
@@ -2749,10 +2749,10 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="D22" s="7">
-        <v>20830</v>
+        <v>145519</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -2764,10 +2764,10 @@
         <v>152</v>
       </c>
       <c r="H22" s="7">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="I22" s="7">
-        <v>21052</v>
+        <v>90618</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>153</v>
@@ -2779,10 +2779,10 @@
         <v>155</v>
       </c>
       <c r="M22" s="7">
-        <v>64</v>
+        <v>354</v>
       </c>
       <c r="N22" s="7">
-        <v>41882</v>
+        <v>236137</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>156</v>
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262CE054-9525-49A8-8AA5-A81E74FA685C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C7243-1CA4-46A2-A37B-C5902971D864}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2979,10 +2979,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>32953</v>
+        <v>3536</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>160</v>
@@ -2994,10 +2994,10 @@
         <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>35539</v>
+        <v>11090</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>163</v>
@@ -3009,10 +3009,10 @@
         <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>68492</v>
+        <v>14626</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>166</v>
@@ -3030,10 +3030,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>83983</v>
+        <v>32953</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>169</v>
@@ -3045,10 +3045,10 @@
         <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7">
-        <v>69927</v>
+        <v>35539</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>172</v>
@@ -3060,10 +3060,10 @@
         <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="N5" s="7">
-        <v>153910</v>
+        <v>68492</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>175</v>
@@ -3081,10 +3081,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D6" s="7">
-        <v>48006</v>
+        <v>83983</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>178</v>
@@ -3096,10 +3096,10 @@
         <v>180</v>
       </c>
       <c r="H6" s="7">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>39887</v>
+        <v>69927</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>181</v>
@@ -3111,10 +3111,10 @@
         <v>183</v>
       </c>
       <c r="M6" s="7">
-        <v>126</v>
+        <v>231</v>
       </c>
       <c r="N6" s="7">
-        <v>87894</v>
+        <v>153910</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>184</v>
@@ -3132,10 +3132,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>3536</v>
+        <v>48006</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>187</v>
@@ -3147,10 +3147,10 @@
         <v>189</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I7" s="7">
-        <v>11090</v>
+        <v>39887</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>190</v>
@@ -3162,10 +3162,10 @@
         <v>192</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="N7" s="7">
-        <v>14626</v>
+        <v>87894</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>193</v>
@@ -3236,28 +3236,28 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
-        <v>64368</v>
+        <v>10213</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>196</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>15</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10681</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="H9" s="7">
-        <v>113</v>
-      </c>
-      <c r="I9" s="7">
-        <v>78970</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>199</v>
@@ -3266,10 +3266,10 @@
         <v>200</v>
       </c>
       <c r="M9" s="7">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>143338</v>
+        <v>20894</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>201</v>
@@ -3287,10 +3287,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>126241</v>
+        <v>44691</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>204</v>
@@ -3299,37 +3299,37 @@
         <v>205</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="I10" s="7">
-        <v>101636</v>
+        <v>50320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="N10" s="7">
-        <v>227878</v>
+        <v>95012</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,10 +3338,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="D11" s="7">
-        <v>43992</v>
+        <v>126944</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>212</v>
@@ -3350,37 +3350,37 @@
         <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="I11" s="7">
-        <v>21571</v>
+        <v>124017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
-        <v>93</v>
+        <v>352</v>
       </c>
       <c r="N11" s="7">
-        <v>65563</v>
+        <v>250961</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,49 +3389,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D12" s="7">
-        <v>11420</v>
+        <v>40471</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="H12" s="7">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I12" s="7">
-        <v>16954</v>
+        <v>26834</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M12" s="7">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="N12" s="7">
-        <v>28374</v>
+        <v>67306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,10 +3440,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>361</v>
+        <v>308</v>
       </c>
       <c r="D13" s="7">
-        <v>246021</v>
+        <v>222319</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -3455,10 +3455,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="I13" s="7">
-        <v>219131</v>
+        <v>211853</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -3470,10 +3470,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>673</v>
+        <v>605</v>
       </c>
       <c r="N13" s="7">
-        <v>465152</v>
+        <v>434172</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -3487,55 +3487,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>44691</v>
+        <v>11420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="H14" s="7">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>50320</v>
+        <v>16954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="N14" s="7">
-        <v>95012</v>
+        <v>28374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,49 +3544,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="D15" s="7">
-        <v>126944</v>
+        <v>64368</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H15" s="7">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="I15" s="7">
-        <v>124017</v>
+        <v>78970</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M15" s="7">
-        <v>352</v>
+        <v>210</v>
       </c>
       <c r="N15" s="7">
-        <v>250961</v>
+        <v>143338</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,25 +3595,25 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="D16" s="7">
-        <v>40471</v>
+        <v>126241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="I16" s="7">
-        <v>26834</v>
+        <v>101636</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>248</v>
@@ -3625,10 +3625,10 @@
         <v>250</v>
       </c>
       <c r="M16" s="7">
-        <v>92</v>
+        <v>329</v>
       </c>
       <c r="N16" s="7">
-        <v>67306</v>
+        <v>227878</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>251</v>
@@ -3646,25 +3646,25 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>10213</v>
+        <v>43992</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>10681</v>
+        <v>21571</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>256</v>
@@ -3676,10 +3676,10 @@
         <v>258</v>
       </c>
       <c r="M17" s="7">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="N17" s="7">
-        <v>20894</v>
+        <v>65563</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>259</v>
@@ -3697,10 +3697,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="D18" s="7">
-        <v>222319</v>
+        <v>246021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -3712,10 +3712,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="I18" s="7">
-        <v>211853</v>
+        <v>219131</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -3727,10 +3727,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="N18" s="7">
-        <v>434172</v>
+        <v>465152</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -3750,10 +3750,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>142012</v>
+        <v>25169</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>262</v>
@@ -3765,34 +3765,34 @@
         <v>264</v>
       </c>
       <c r="H19" s="7">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="I19" s="7">
-        <v>164829</v>
+        <v>38724</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>265</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
-        <v>441</v>
+        <v>92</v>
       </c>
       <c r="N19" s="7">
-        <v>306841</v>
+        <v>63893</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,40 +3801,40 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>485</v>
+        <v>205</v>
       </c>
       <c r="D20" s="7">
-        <v>337168</v>
+        <v>142012</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
-        <v>427</v>
+        <v>236</v>
       </c>
       <c r="I20" s="7">
-        <v>295580</v>
+        <v>164829</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>275</v>
       </c>
       <c r="M20" s="7">
-        <v>912</v>
+        <v>441</v>
       </c>
       <c r="N20" s="7">
-        <v>632748</v>
+        <v>306841</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>276</v>
@@ -3852,10 +3852,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>183</v>
+        <v>485</v>
       </c>
       <c r="D21" s="7">
-        <v>132469</v>
+        <v>337168</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>279</v>
@@ -3864,37 +3864,37 @@
         <v>280</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7">
-        <v>128</v>
+        <v>427</v>
       </c>
       <c r="I21" s="7">
-        <v>88293</v>
+        <v>295580</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="M21" s="7">
-        <v>311</v>
+        <v>912</v>
       </c>
       <c r="N21" s="7">
-        <v>220762</v>
+        <v>632748</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,40 +3903,40 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="D22" s="7">
-        <v>25169</v>
+        <v>132469</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="I22" s="7">
-        <v>38724</v>
+        <v>88293</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="N22" s="7">
-        <v>63893</v>
+        <v>220762</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>292</v>
@@ -4015,7 +4015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E3C13-EF62-4FBE-8C2C-AFD4553F8701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA94F50C-59DC-49A1-BBA4-8F43FE574839}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4133,10 +4133,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>35043</v>
+        <v>2835</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>296</v>
@@ -4145,37 +4145,37 @@
         <v>297</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7">
+        <v>20</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12422</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="7">
-        <v>50</v>
-      </c>
-      <c r="I4" s="7">
-        <v>30186</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>24</v>
+      </c>
+      <c r="N4" s="7">
+        <v>15257</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M4" s="7">
-        <v>103</v>
-      </c>
-      <c r="N4" s="7">
-        <v>65229</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +4184,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>80059</v>
+        <v>35043</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>50</v>
+      </c>
+      <c r="I5" s="7">
+        <v>30186</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H5" s="7">
-        <v>112</v>
-      </c>
-      <c r="I5" s="7">
-        <v>69655</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>103</v>
+      </c>
+      <c r="N5" s="7">
+        <v>65229</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="M5" s="7">
-        <v>232</v>
-      </c>
-      <c r="N5" s="7">
-        <v>149714</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,49 +4235,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="D6" s="7">
-        <v>30650</v>
+        <v>80059</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>112</v>
+      </c>
+      <c r="I6" s="7">
+        <v>69655</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26063</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>232</v>
+      </c>
+      <c r="N6" s="7">
+        <v>149714</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="M6" s="7">
-        <v>92</v>
-      </c>
-      <c r="N6" s="7">
-        <v>56714</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,25 +4286,25 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>2835</v>
+        <v>30650</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>12422</v>
+        <v>26063</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>325</v>
@@ -4316,10 +4316,10 @@
         <v>327</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="N7" s="7">
-        <v>15257</v>
+        <v>56714</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>328</v>
@@ -4390,10 +4390,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7">
-        <v>75361</v>
+        <v>15883</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>331</v>
@@ -4405,34 +4405,34 @@
         <v>333</v>
       </c>
       <c r="H9" s="7">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I9" s="7">
-        <v>70639</v>
+        <v>15706</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M9" s="7">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="N9" s="7">
-        <v>146000</v>
+        <v>31588</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,25 +4441,25 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="D10" s="7">
-        <v>123421</v>
+        <v>54081</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>341</v>
       </c>
       <c r="H10" s="7">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>121712</v>
+        <v>58191</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>342</v>
@@ -4471,19 +4471,19 @@
         <v>344</v>
       </c>
       <c r="M10" s="7">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="N10" s="7">
-        <v>245133</v>
+        <v>112272</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,49 +4492,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="D11" s="7">
-        <v>27509</v>
+        <v>130347</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>181</v>
+      </c>
+      <c r="I11" s="7">
+        <v>118859</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>12287</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>371</v>
+      </c>
+      <c r="N11" s="7">
+        <v>249206</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="M11" s="7">
-        <v>53</v>
-      </c>
-      <c r="N11" s="7">
-        <v>39796</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="P11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,49 +4543,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D12" s="7">
-        <v>23265</v>
+        <v>26136</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H12" s="7">
         <v>35</v>
       </c>
       <c r="I12" s="7">
-        <v>24469</v>
+        <v>21806</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="7">
+        <v>72</v>
+      </c>
+      <c r="N12" s="7">
+        <v>47942</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="M12" s="7">
-        <v>66</v>
-      </c>
-      <c r="N12" s="7">
-        <v>47733</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,10 +4594,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D13" s="7">
-        <v>249556</v>
+        <v>226446</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -4609,10 +4609,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I13" s="7">
-        <v>229106</v>
+        <v>214561</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -4624,10 +4624,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="N13" s="7">
-        <v>478662</v>
+        <v>441008</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -4641,55 +4641,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>54081</v>
+        <v>23265</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H14" s="7">
+        <v>35</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24469</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H14" s="7">
-        <v>88</v>
-      </c>
-      <c r="I14" s="7">
-        <v>58191</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>66</v>
+      </c>
+      <c r="N14" s="7">
+        <v>47733</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M14" s="7">
-        <v>167</v>
-      </c>
-      <c r="N14" s="7">
-        <v>112272</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,49 +4698,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="D15" s="7">
-        <v>130347</v>
+        <v>75361</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7">
+        <v>101</v>
+      </c>
+      <c r="I15" s="7">
+        <v>70639</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="H15" s="7">
-        <v>181</v>
-      </c>
-      <c r="I15" s="7">
-        <v>118859</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>204</v>
+      </c>
+      <c r="N15" s="7">
+        <v>146000</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="M15" s="7">
-        <v>371</v>
-      </c>
-      <c r="N15" s="7">
-        <v>249206</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,40 +4749,40 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>169</v>
       </c>
       <c r="D16" s="7">
-        <v>26136</v>
+        <v>123421</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>168</v>
+      </c>
+      <c r="I16" s="7">
+        <v>121712</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="H16" s="7">
-        <v>35</v>
-      </c>
-      <c r="I16" s="7">
-        <v>21806</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="M16" s="7">
-        <v>72</v>
+        <v>337</v>
       </c>
       <c r="N16" s="7">
-        <v>47942</v>
+        <v>245133</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>385</v>
@@ -4791,7 +4791,7 @@
         <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>145</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,49 +4800,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>15883</v>
+        <v>27509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>15706</v>
+        <v>12287</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>31588</v>
+        <v>39796</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,10 +4851,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="D18" s="7">
-        <v>226446</v>
+        <v>249556</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -4866,10 +4866,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I18" s="7">
-        <v>214561</v>
+        <v>229106</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -4881,10 +4881,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="N18" s="7">
-        <v>441008</v>
+        <v>478662</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -4904,49 +4904,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7">
-        <v>164485</v>
+        <v>41982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>16</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="I19" s="7">
-        <v>159016</v>
+        <v>52596</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>399</v>
       </c>
       <c r="M19" s="7">
-        <v>474</v>
+        <v>135</v>
       </c>
       <c r="N19" s="7">
-        <v>323501</v>
+        <v>94579</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,49 +4955,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>479</v>
+        <v>235</v>
       </c>
       <c r="D20" s="7">
-        <v>333828</v>
+        <v>164485</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>239</v>
+      </c>
+      <c r="I20" s="7">
+        <v>159016</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="H20" s="7">
-        <v>461</v>
-      </c>
-      <c r="I20" s="7">
-        <v>310225</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>474</v>
+      </c>
+      <c r="N20" s="7">
+        <v>323501</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="M20" s="7">
-        <v>940</v>
-      </c>
-      <c r="N20" s="7">
-        <v>644053</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,49 +5006,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>121</v>
+        <v>479</v>
       </c>
       <c r="D21" s="7">
-        <v>84296</v>
+        <v>333828</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="H21" s="7">
+        <v>461</v>
+      </c>
+      <c r="I21" s="7">
+        <v>310225</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="H21" s="7">
-        <v>96</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60156</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>940</v>
+      </c>
+      <c r="N21" s="7">
+        <v>644053</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="M21" s="7">
-        <v>217</v>
-      </c>
-      <c r="N21" s="7">
-        <v>144452</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,46 +5057,46 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="D22" s="7">
-        <v>41982</v>
+        <v>84296</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H22" s="7">
+        <v>96</v>
+      </c>
+      <c r="I22" s="7">
+        <v>60156</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="H22" s="7">
-        <v>78</v>
-      </c>
-      <c r="I22" s="7">
-        <v>52596</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>217</v>
+      </c>
+      <c r="N22" s="7">
+        <v>144452</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="M22" s="7">
-        <v>135</v>
-      </c>
-      <c r="N22" s="7">
-        <v>94579</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>425</v>

--- a/data/trans_orig/IP31A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP31A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A4A1CF-4DAD-4FF8-997E-CA0971982373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2BE938F-70AE-444F-A2C3-E45320528C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4288FB11-554A-428E-9025-48632A899875}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44A41D03-8AA5-48E9-8FB8-F73673667476}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="534">
   <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2007 (Tasa respuesta: 84,41%)</t>
   </si>
@@ -67,1255 +67,1579 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>3 ó más vasos/tazas</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>2 vasos/tazas</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>1 vaso/taza</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>Menos de 1 vaso/taza</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1 vaso/taza</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>19,11%</t>
   </si>
   <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2015 (Tasa respuesta: 83,07%)</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>2 vasos/tazas</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>3 ó más vasos/tazas</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2015 (Tasa respuesta: 83,07%)</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1650,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1422,39 +1746,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1506,7 +1830,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1617,13 +1941,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1632,6 +1949,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1696,19 +2020,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A4EDD3-98B6-48B9-B106-A75C618C4BA7}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D075F-A811-42F0-BA41-DADF2D49F148}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1825,10 +2169,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>4591</v>
+        <v>21997</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1840,10 +2184,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>4019</v>
+        <v>15931</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1855,10 +2199,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>8610</v>
+        <v>37928</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1876,10 +2220,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
-        <v>31415</v>
+        <v>29545</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1891,10 +2235,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I5" s="7">
-        <v>28442</v>
+        <v>32614</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1906,10 +2250,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="N5" s="7">
-        <v>59858</v>
+        <v>62159</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1927,10 +2271,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7">
-        <v>81032</v>
+        <v>15967</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1942,10 +2286,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7">
-        <v>87098</v>
+        <v>12297</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1957,10 +2301,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="N6" s="7">
-        <v>168130</v>
+        <v>28264</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1978,10 +2322,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>47342</v>
+        <v>3204</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1993,10 +2337,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>37301</v>
+        <v>2731</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2008,10 +2352,10 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>84643</v>
+        <v>5935</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2029,10 +2373,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="D8" s="7">
-        <v>164381</v>
+        <v>70712</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -2044,10 +2388,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="I8" s="7">
-        <v>156859</v>
+        <v>63573</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2059,10 +2403,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>484</v>
+        <v>203</v>
       </c>
       <c r="N8" s="7">
-        <v>321240</v>
+        <v>134285</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -2082,10 +2426,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>6439</v>
+        <v>52126</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -2094,37 +2438,37 @@
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="I9" s="7">
-        <v>7336</v>
+        <v>43202</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="N9" s="7">
-        <v>13774</v>
+        <v>95329</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,49 +2477,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
+        <v>205</v>
+      </c>
+      <c r="D10" s="7">
+        <v>135970</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7">
+        <v>208</v>
+      </c>
+      <c r="I10" s="7">
+        <v>139412</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="7">
-        <v>44655</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="7">
-        <v>57</v>
-      </c>
-      <c r="I10" s="7">
-        <v>37804</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="M10" s="7">
-        <v>123</v>
+        <v>413</v>
       </c>
       <c r="N10" s="7">
-        <v>82459</v>
+        <v>275382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,49 +2528,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>110909</v>
+        <v>44877</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>106765</v>
+        <v>40883</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>326</v>
+        <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>217673</v>
+        <v>85760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,49 +2579,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>38806</v>
+        <v>4605</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>27798</v>
+        <v>3889</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>66604</v>
+        <v>8494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,10 +2630,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="D13" s="7">
-        <v>200808</v>
+        <v>237578</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2301,10 +2645,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="I13" s="7">
-        <v>179703</v>
+        <v>227387</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2316,10 +2660,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>570</v>
+        <v>698</v>
       </c>
       <c r="N13" s="7">
-        <v>380510</v>
+        <v>464965</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2333,55 +2677,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>9800</v>
+        <v>30034</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>9698</v>
+        <v>12124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>19498</v>
+        <v>42158</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,10 +2734,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D15" s="7">
-        <v>61545</v>
+        <v>55805</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -2405,34 +2749,34 @@
         <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="I15" s="7">
-        <v>96378</v>
+        <v>49820</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>160</v>
+      </c>
+      <c r="N15" s="7">
+        <v>105625</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M15" s="7">
-        <v>231</v>
-      </c>
-      <c r="N15" s="7">
-        <v>157922</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,49 +2785,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="D16" s="7">
-        <v>119052</v>
+        <v>32791</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>60</v>
+      </c>
+      <c r="I16" s="7">
+        <v>40887</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="7">
-        <v>154</v>
-      </c>
-      <c r="I16" s="7">
-        <v>102961</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>107</v>
+      </c>
+      <c r="N16" s="7">
+        <v>73677</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="7">
-        <v>335</v>
-      </c>
-      <c r="N16" s="7">
-        <v>222013</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,49 +2836,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>59371</v>
+        <v>5067</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
+        <v>7610</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="7">
-        <v>38</v>
-      </c>
-      <c r="I17" s="7">
-        <v>25520</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>20</v>
+      </c>
+      <c r="N17" s="7">
+        <v>12677</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M17" s="7">
-        <v>126</v>
-      </c>
-      <c r="N17" s="7">
-        <v>84890</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,10 +2887,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>374</v>
+        <v>185</v>
       </c>
       <c r="D18" s="7">
-        <v>249768</v>
+        <v>123697</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2558,10 +2902,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>348</v>
+        <v>165</v>
       </c>
       <c r="I18" s="7">
-        <v>234557</v>
+        <v>110441</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2573,10 +2917,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>722</v>
+        <v>350</v>
       </c>
       <c r="N18" s="7">
-        <v>484324</v>
+        <v>234137</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2590,55 +2934,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>20830</v>
+        <v>41361</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>29</v>
+      </c>
+      <c r="I19" s="7">
+        <v>19361</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21052</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>90</v>
+      </c>
+      <c r="N19" s="7">
+        <v>60722</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M19" s="7">
-        <v>64</v>
-      </c>
-      <c r="N19" s="7">
-        <v>41882</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,49 +2991,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="D20" s="7">
-        <v>137614</v>
+        <v>89672</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>111</v>
+      </c>
+      <c r="I20" s="7">
+        <v>74978</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="7">
-        <v>240</v>
-      </c>
-      <c r="I20" s="7">
-        <v>162624</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>248</v>
+      </c>
+      <c r="N20" s="7">
+        <v>164650</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="7">
-        <v>443</v>
-      </c>
-      <c r="N20" s="7">
-        <v>300239</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,49 +3042,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>472</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7">
-        <v>310992</v>
+        <v>43980</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7">
+        <v>100</v>
+      </c>
+      <c r="I21" s="7">
+        <v>68558</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="7">
-        <v>443</v>
-      </c>
-      <c r="I21" s="7">
-        <v>296824</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="7">
+        <v>165</v>
+      </c>
+      <c r="N21" s="7">
+        <v>112538</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="M21" s="7">
-        <v>915</v>
-      </c>
-      <c r="N21" s="7">
-        <v>607816</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,49 +3093,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>145519</v>
+        <v>7956</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>6822</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="7">
-        <v>136</v>
-      </c>
-      <c r="I22" s="7">
-        <v>90618</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>22</v>
+      </c>
+      <c r="N22" s="7">
+        <v>14777</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="M22" s="7">
-        <v>354</v>
-      </c>
-      <c r="N22" s="7">
-        <v>236137</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,55 +3144,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>275</v>
+      </c>
+      <c r="D23" s="7">
+        <v>182969</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>250</v>
+      </c>
+      <c r="I23" s="7">
+        <v>169718</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>525</v>
+      </c>
+      <c r="N23" s="7">
+        <v>352687</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>218</v>
+      </c>
+      <c r="D24" s="7">
+        <v>145519</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H24" s="7">
+        <v>136</v>
+      </c>
+      <c r="I24" s="7">
+        <v>90618</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="7">
+        <v>354</v>
+      </c>
+      <c r="N24" s="7">
+        <v>236137</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>472</v>
+      </c>
+      <c r="D25" s="7">
+        <v>310992</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="7">
+        <v>443</v>
+      </c>
+      <c r="I25" s="7">
+        <v>296824</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M25" s="7">
+        <v>915</v>
+      </c>
+      <c r="N25" s="7">
+        <v>607816</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>203</v>
+      </c>
+      <c r="D26" s="7">
+        <v>137614</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="7">
+        <v>240</v>
+      </c>
+      <c r="I26" s="7">
+        <v>162624</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M26" s="7">
+        <v>443</v>
+      </c>
+      <c r="N26" s="7">
+        <v>300239</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>32</v>
+      </c>
+      <c r="D27" s="7">
+        <v>20830</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="7">
+        <v>32</v>
+      </c>
+      <c r="I27" s="7">
+        <v>21052</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" s="7">
+        <v>64</v>
+      </c>
+      <c r="N27" s="7">
+        <v>41882</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>925</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>614956</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>851</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>571118</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="7">
         <v>1776</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1186075</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>50</v>
+      <c r="O28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2861,8 +3468,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61C7243-1CA4-46A2-A37B-C5902971D864}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D36034-62F0-4DCD-877F-DBB36D652090}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2878,7 +3485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,49 +3586,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>3536</v>
+        <v>27205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>11090</v>
+        <v>23499</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>14626</v>
+        <v>50704</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,49 +3637,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7">
-        <v>32953</v>
+        <v>40149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7">
-        <v>35539</v>
+        <v>35480</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="N5" s="7">
-        <v>68492</v>
+        <v>75629</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,49 +3688,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>83983</v>
+        <v>13171</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7">
-        <v>69927</v>
+        <v>18649</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7">
-        <v>153910</v>
+        <v>31821</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,49 +3739,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>48006</v>
+        <v>887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>39887</v>
+        <v>3747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="M7" s="7">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>87894</v>
+        <v>4634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,10 +3790,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>240</v>
+        <v>117</v>
       </c>
       <c r="D8" s="7">
-        <v>168478</v>
+        <v>81413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -3198,10 +3805,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>156443</v>
+        <v>81374</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -3213,10 +3820,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>478</v>
+        <v>241</v>
       </c>
       <c r="N8" s="7">
-        <v>324921</v>
+        <v>162787</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -3236,49 +3843,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>10213</v>
+        <v>49367</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>10681</v>
+        <v>38210</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="N9" s="7">
-        <v>20894</v>
+        <v>87578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,49 +3894,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7">
-        <v>44691</v>
+        <v>141047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="I10" s="7">
-        <v>50320</v>
+        <v>119557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
-        <v>132</v>
+        <v>371</v>
       </c>
       <c r="N10" s="7">
-        <v>95012</v>
+        <v>260604</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,49 +3945,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="D11" s="7">
-        <v>126944</v>
+        <v>52715</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="I11" s="7">
-        <v>124017</v>
+        <v>49698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
-        <v>352</v>
+        <v>143</v>
       </c>
       <c r="N11" s="7">
-        <v>250961</v>
+        <v>102413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,49 +3996,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>40471</v>
+        <v>9126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>222</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I12" s="7">
-        <v>26834</v>
+        <v>14481</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="N12" s="7">
-        <v>67306</v>
+        <v>23606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="D13" s="7">
-        <v>222319</v>
+        <v>252255</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -3455,10 +4062,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="I13" s="7">
-        <v>211853</v>
+        <v>221946</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -3470,10 +4077,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>605</v>
+        <v>671</v>
       </c>
       <c r="N13" s="7">
-        <v>434172</v>
+        <v>474201</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -3487,55 +4094,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>11420</v>
+        <v>25040</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14" s="7">
+        <v>20</v>
+      </c>
+      <c r="I14" s="7">
+        <v>14614</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M14" s="7">
         <v>56</v>
       </c>
-      <c r="H14" s="7">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16954</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M14" s="7">
-        <v>41</v>
-      </c>
       <c r="N14" s="7">
-        <v>28374</v>
+        <v>39654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,49 +4151,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>64368</v>
+        <v>76353</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="H15" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15" s="7">
-        <v>78970</v>
+        <v>78423</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="M15" s="7">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="N15" s="7">
-        <v>143338</v>
+        <v>154775</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +4202,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="D16" s="7">
-        <v>126241</v>
+        <v>33051</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="I16" s="7">
-        <v>101636</v>
+        <v>38871</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
-        <v>329</v>
+        <v>104</v>
       </c>
       <c r="N16" s="7">
-        <v>227878</v>
+        <v>71921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,49 +4253,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>43992</v>
+        <v>7196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>21571</v>
+        <v>6126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>65563</v>
+        <v>13322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,10 +4304,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>361</v>
+        <v>205</v>
       </c>
       <c r="D18" s="7">
-        <v>246021</v>
+        <v>141640</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -3712,10 +4319,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>312</v>
+        <v>196</v>
       </c>
       <c r="I18" s="7">
-        <v>219131</v>
+        <v>138034</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -3727,10 +4334,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>673</v>
+        <v>401</v>
       </c>
       <c r="N18" s="7">
-        <v>465152</v>
+        <v>279673</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -3744,55 +4351,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>25169</v>
+        <v>30857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>263</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>38724</v>
+        <v>11970</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="N19" s="7">
-        <v>63893</v>
+        <v>42827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,49 +4408,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7">
-        <v>142012</v>
+        <v>79619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="I20" s="7">
-        <v>164829</v>
+        <v>62121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
-        <v>441</v>
+        <v>203</v>
       </c>
       <c r="N20" s="7">
-        <v>306841</v>
+        <v>141740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,49 +4459,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>485</v>
+        <v>65</v>
       </c>
       <c r="D21" s="7">
-        <v>337168</v>
+        <v>43075</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="H21" s="7">
-        <v>427</v>
+        <v>83</v>
       </c>
       <c r="I21" s="7">
-        <v>295580</v>
+        <v>57612</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="M21" s="7">
-        <v>912</v>
+        <v>148</v>
       </c>
       <c r="N21" s="7">
-        <v>632748</v>
+        <v>100687</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,49 +4510,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>132469</v>
+        <v>7960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>88293</v>
+        <v>14371</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="N22" s="7">
-        <v>220762</v>
+        <v>22331</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,55 +4561,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>236</v>
+      </c>
+      <c r="D23" s="7">
+        <v>161510</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>207</v>
+      </c>
+      <c r="I23" s="7">
+        <v>146074</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>443</v>
+      </c>
+      <c r="N23" s="7">
+        <v>307584</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>183</v>
+      </c>
+      <c r="D24" s="7">
+        <v>132469</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="7">
+        <v>128</v>
+      </c>
+      <c r="I24" s="7">
+        <v>88293</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M24" s="7">
+        <v>311</v>
+      </c>
+      <c r="N24" s="7">
+        <v>220762</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>485</v>
+      </c>
+      <c r="D25" s="7">
+        <v>337168</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H25" s="7">
+        <v>427</v>
+      </c>
+      <c r="I25" s="7">
+        <v>295580</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="M25" s="7">
+        <v>912</v>
+      </c>
+      <c r="N25" s="7">
+        <v>632748</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>205</v>
+      </c>
+      <c r="D26" s="7">
+        <v>142012</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H26" s="7">
+        <v>236</v>
+      </c>
+      <c r="I26" s="7">
+        <v>164829</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" s="7">
+        <v>441</v>
+      </c>
+      <c r="N26" s="7">
+        <v>306841</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>36</v>
+      </c>
+      <c r="D27" s="7">
+        <v>25169</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H27" s="7">
+        <v>56</v>
+      </c>
+      <c r="I27" s="7">
+        <v>38724</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M27" s="7">
+        <v>92</v>
+      </c>
+      <c r="N27" s="7">
+        <v>63893</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>909</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>636818</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>847</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>587427</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="7">
         <v>1756</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1224245</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>50</v>
+      <c r="O28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4015,8 +4885,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA94F50C-59DC-49A1-BBA4-8F43FE574839}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586022D-5E8F-4A78-8479-C9D05D15CD18}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4032,7 +4902,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4133,49 +5003,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>2835</v>
+        <v>18557</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>12422</v>
+        <v>16135</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="N4" s="7">
-        <v>15257</v>
+        <v>34692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,46 +5057,46 @@
         <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>35043</v>
+        <v>35431</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I5" s="7">
-        <v>30186</v>
+        <v>37544</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="N5" s="7">
-        <v>65229</v>
+        <v>72975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,49 +5105,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>80059</v>
+        <v>12691</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>314</v>
+        <v>383</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>69655</v>
+        <v>14523</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>317</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>149714</v>
+        <v>27214</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,49 +5156,49 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>30650</v>
+        <v>1302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>322</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>221</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="H7" s="7">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>26063</v>
+        <v>6108</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="M7" s="7">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>56714</v>
+        <v>7410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,10 +5207,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>225</v>
+        <v>103</v>
       </c>
       <c r="D8" s="7">
-        <v>148588</v>
+        <v>67981</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -4352,10 +5222,10 @@
         <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="I8" s="7">
-        <v>138326</v>
+        <v>74310</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -4367,10 +5237,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>451</v>
+        <v>223</v>
       </c>
       <c r="N8" s="7">
-        <v>286914</v>
+        <v>142291</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -4390,49 +5260,49 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7">
-        <v>15883</v>
+        <v>28084</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I9" s="7">
-        <v>15706</v>
+        <v>26497</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>334</v>
+        <v>402</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>335</v>
+        <v>403</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>336</v>
+        <v>404</v>
       </c>
       <c r="M9" s="7">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="N9" s="7">
-        <v>31588</v>
+        <v>54581</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>337</v>
+        <v>405</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>339</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,49 +5311,49 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="D10" s="7">
-        <v>54081</v>
+        <v>138352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I10" s="7">
-        <v>58191</v>
+        <v>102483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
-        <v>167</v>
+        <v>363</v>
       </c>
       <c r="N10" s="7">
-        <v>112272</v>
+        <v>240834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,49 +5362,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="D11" s="7">
-        <v>130347</v>
+        <v>58935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>419</v>
       </c>
       <c r="H11" s="7">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="I11" s="7">
-        <v>118859</v>
+        <v>51290</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>422</v>
       </c>
       <c r="M11" s="7">
-        <v>371</v>
+        <v>168</v>
       </c>
       <c r="N11" s="7">
-        <v>249206</v>
+        <v>110225</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>37</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,49 +5413,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10505</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H12" s="7">
+        <v>23</v>
+      </c>
+      <c r="I12" s="7">
+        <v>14847</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="M12" s="7">
         <v>37</v>
       </c>
-      <c r="D12" s="7">
-        <v>26136</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H12" s="7">
-        <v>35</v>
-      </c>
-      <c r="I12" s="7">
-        <v>21806</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M12" s="7">
-        <v>72</v>
-      </c>
       <c r="N12" s="7">
-        <v>47942</v>
+        <v>25352</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>360</v>
+        <v>432</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>154</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,10 +5464,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D13" s="7">
-        <v>226446</v>
+        <v>235876</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -4609,10 +5479,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="I13" s="7">
-        <v>214561</v>
+        <v>195117</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -4627,7 +5497,7 @@
         <v>655</v>
       </c>
       <c r="N13" s="7">
-        <v>441008</v>
+        <v>430992</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -4641,55 +5511,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>23265</v>
+        <v>21954</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>362</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>24469</v>
+        <v>8288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>366</v>
+        <v>438</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>439</v>
       </c>
       <c r="M14" s="7">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="N14" s="7">
-        <v>47733</v>
+        <v>30243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>440</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>441</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,49 +5568,49 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7">
-        <v>75361</v>
+        <v>84812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>371</v>
+        <v>443</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>372</v>
+        <v>132</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>373</v>
+        <v>444</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="I15" s="7">
-        <v>70639</v>
+        <v>97300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>240</v>
+        <v>445</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>375</v>
+        <v>447</v>
       </c>
       <c r="M15" s="7">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="N15" s="7">
-        <v>146000</v>
+        <v>182112</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>376</v>
+        <v>448</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>377</v>
+        <v>449</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,49 +5619,49 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>123421</v>
+        <v>42948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>452</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>453</v>
       </c>
       <c r="H16" s="7">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>121712</v>
+        <v>47315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>454</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>455</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="N16" s="7">
-        <v>245133</v>
+        <v>90264</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,49 +5670,49 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>27509</v>
+        <v>18697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>12287</v>
+        <v>15177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="M17" s="7">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N17" s="7">
-        <v>39796</v>
+        <v>33874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>267</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,10 +5721,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="D18" s="7">
-        <v>249556</v>
+        <v>168411</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -4866,10 +5736,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>321</v>
+        <v>242</v>
       </c>
       <c r="I18" s="7">
-        <v>229106</v>
+        <v>168080</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -4881,10 +5751,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>660</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>478662</v>
+        <v>336492</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -4898,55 +5768,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>41982</v>
+        <v>15700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>52596</v>
+        <v>9236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>94579</v>
+        <v>24936</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>118</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>265</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>400</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,49 +5825,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="D20" s="7">
-        <v>164485</v>
+        <v>75233</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="I20" s="7">
-        <v>159016</v>
+        <v>72899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>404</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>405</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
-        <v>474</v>
+        <v>203</v>
       </c>
       <c r="N20" s="7">
-        <v>323501</v>
+        <v>148131</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>406</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>407</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,49 +5876,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>479</v>
+        <v>69</v>
       </c>
       <c r="D21" s="7">
-        <v>333828</v>
+        <v>49911</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>408</v>
+        <v>486</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>409</v>
+        <v>487</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="H21" s="7">
-        <v>461</v>
+        <v>67</v>
       </c>
       <c r="I21" s="7">
-        <v>310225</v>
+        <v>45887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>411</v>
+        <v>489</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>413</v>
+        <v>491</v>
       </c>
       <c r="M21" s="7">
-        <v>940</v>
+        <v>136</v>
       </c>
       <c r="N21" s="7">
-        <v>644053</v>
+        <v>95798</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>415</v>
+        <v>493</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>416</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,49 +5927,49 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>84296</v>
+        <v>11479</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>417</v>
+        <v>495</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>496</v>
       </c>
       <c r="H22" s="7">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="I22" s="7">
-        <v>60156</v>
+        <v>16464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>498</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="N22" s="7">
-        <v>144452</v>
+        <v>27943</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>500</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>501</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,55 +5978,318 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>207</v>
+      </c>
+      <c r="D23" s="7">
+        <v>152323</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>205</v>
+      </c>
+      <c r="I23" s="7">
+        <v>144486</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>412</v>
+      </c>
+      <c r="N23" s="7">
+        <v>296809</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7">
+        <v>121</v>
+      </c>
+      <c r="D24" s="7">
+        <v>84296</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H24" s="7">
+        <v>96</v>
+      </c>
+      <c r="I24" s="7">
+        <v>60156</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M24" s="7">
+        <v>217</v>
+      </c>
+      <c r="N24" s="7">
+        <v>144452</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>479</v>
+      </c>
+      <c r="D25" s="7">
+        <v>333828</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H25" s="7">
+        <v>461</v>
+      </c>
+      <c r="I25" s="7">
+        <v>310225</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M25" s="7">
+        <v>940</v>
+      </c>
+      <c r="N25" s="7">
+        <v>644053</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="7">
+        <v>235</v>
+      </c>
+      <c r="D26" s="7">
+        <v>164485</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H26" s="7">
+        <v>239</v>
+      </c>
+      <c r="I26" s="7">
+        <v>159016</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M26" s="7">
+        <v>474</v>
+      </c>
+      <c r="N26" s="7">
+        <v>323501</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7">
+        <v>57</v>
+      </c>
+      <c r="D27" s="7">
+        <v>41982</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H27" s="7">
+        <v>78</v>
+      </c>
+      <c r="I27" s="7">
+        <v>52596</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="M27" s="7">
+        <v>135</v>
+      </c>
+      <c r="N27" s="7">
+        <v>94579</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
         <v>892</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D28" s="7">
         <v>624591</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>874</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I28" s="7">
         <v>581994</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M23" s="7">
+      <c r="J28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="7">
         <v>1766</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N28" s="7">
         <v>1206584</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>50</v>
+      <c r="O28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP31A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP31A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2BE938F-70AE-444F-A2C3-E45320528C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9009E7A4-B4E8-4827-B4C6-30EA0757CCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44A41D03-8AA5-48E9-8FB8-F73673667476}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D224F421-2E0D-4781-929B-9032FDE2A484}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="535">
   <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2007 (Tasa respuesta: 84,41%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>31,11%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
   </si>
   <si>
     <t>25,06%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
   </si>
   <si>
     <t>2 vasos/tazas</t>
@@ -106,28 +106,28 @@
     <t>41,78%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
   </si>
   <si>
     <t>51,3%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
   </si>
   <si>
     <t>46,29%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
   </si>
   <si>
     <t>1 vaso/taza</t>
@@ -136,28 +136,28 @@
     <t>22,58%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
   </si>
   <si>
     <t>19,34%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>Menos de 1 vaso/taza</t>
@@ -166,10 +166,10 @@
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>4,3%</t>
@@ -178,1468 +178,1471 @@
     <t>1,05%</t>
   </si>
   <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2016 (Tasa respuesta: 83,07%)</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
     <t>15,18%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
   </si>
   <si>
     <t>55,6%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2015 (Tasa respuesta: 83,07%)</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>7,15%</t>
+    <t>11,02%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>9,23%</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468D075F-A811-42F0-BA41-DADF2D49F148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DACA9E8-F749-47C1-88BF-89ADE40389B9}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2725,7 +2728,7 @@
         <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,13 +2743,13 @@
         <v>55805</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -2755,13 +2758,13 @@
         <v>49820</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -2770,13 +2773,13 @@
         <v>105625</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2794,13 @@
         <v>32791</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -2806,13 +2809,13 @@
         <v>40887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -2821,13 +2824,13 @@
         <v>73677</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,10 +2845,10 @@
         <v>5067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>115</v>
@@ -2875,10 +2878,10 @@
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,7 +2937,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2946,13 +2949,13 @@
         <v>41361</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -2961,13 +2964,13 @@
         <v>19361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -2976,13 +2979,13 @@
         <v>60722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +3000,13 @@
         <v>89672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>111</v>
@@ -3012,13 +3015,13 @@
         <v>74978</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>248</v>
@@ -3027,13 +3030,13 @@
         <v>164650</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3051,13 @@
         <v>43980</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
@@ -3063,13 +3066,13 @@
         <v>68558</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>165</v>
@@ -3078,13 +3081,13 @@
         <v>112538</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3102,13 @@
         <v>7956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3114,13 +3117,13 @@
         <v>6822</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -3129,13 +3132,13 @@
         <v>14777</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3206,13 @@
         <v>145519</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>136</v>
@@ -3218,13 +3221,13 @@
         <v>90618</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>354</v>
@@ -3233,13 +3236,13 @@
         <v>236137</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,13 +3257,13 @@
         <v>310992</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>443</v>
@@ -3269,13 +3272,13 @@
         <v>296824</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>915</v>
@@ -3284,13 +3287,13 @@
         <v>607816</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,13 +3308,13 @@
         <v>137614</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>240</v>
@@ -3320,13 +3323,13 @@
         <v>162624</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>443</v>
@@ -3335,13 +3338,13 @@
         <v>300239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3359,13 @@
         <v>20830</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>32</v>
@@ -3371,13 +3374,13 @@
         <v>21052</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>64</v>
@@ -3386,13 +3389,13 @@
         <v>41882</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,7 +3451,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3468,7 +3471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D36034-62F0-4DCD-877F-DBB36D652090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D88096E-9B86-41BC-95B1-53E837E89FD4}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3485,7 +3488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3592,13 +3595,13 @@
         <v>27205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -3607,13 +3610,13 @@
         <v>23499</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
         <v>72</v>
@@ -3622,13 +3625,13 @@
         <v>50704</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3646,13 @@
         <v>40149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>56</v>
@@ -3658,13 +3661,13 @@
         <v>35480</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>116</v>
@@ -3673,13 +3676,13 @@
         <v>75629</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3697,13 @@
         <v>13171</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -3709,13 +3712,13 @@
         <v>18649</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -3724,13 +3727,13 @@
         <v>31821</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3748,13 @@
         <v>887</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3760,13 +3763,13 @@
         <v>3747</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -3775,13 +3778,13 @@
         <v>4634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3852,13 @@
         <v>49367</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H9" s="7">
         <v>56</v>
@@ -3864,13 +3867,13 @@
         <v>38210</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>123</v>
@@ -3879,13 +3882,13 @@
         <v>87578</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3903,13 @@
         <v>141047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -3915,13 +3918,13 @@
         <v>119557</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>371</v>
@@ -3930,13 +3933,13 @@
         <v>260604</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3954,13 @@
         <v>52715</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -3966,13 +3969,13 @@
         <v>49698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -3981,13 +3984,13 @@
         <v>102413</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4005,13 @@
         <v>9126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>21</v>
@@ -4017,13 +4020,13 @@
         <v>14481</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -4032,13 +4035,13 @@
         <v>23606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4109,13 @@
         <v>25040</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -4121,13 +4124,13 @@
         <v>14614</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -4136,13 +4139,13 @@
         <v>39654</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4160,13 @@
         <v>76353</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H15" s="7">
         <v>112</v>
@@ -4172,13 +4175,13 @@
         <v>78423</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M15" s="7">
         <v>222</v>
@@ -4187,13 +4190,13 @@
         <v>154775</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4211,13 @@
         <v>33051</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4223,13 +4226,13 @@
         <v>38871</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4238,13 +4241,13 @@
         <v>71921</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4262,13 @@
         <v>7196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4274,13 +4277,13 @@
         <v>6126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4289,13 +4292,13 @@
         <v>13322</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,7 +4354,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4363,13 +4366,13 @@
         <v>30857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4378,13 +4381,13 @@
         <v>11970</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -4393,13 +4396,13 @@
         <v>42827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4417,13 @@
         <v>79619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>87</v>
@@ -4429,13 +4432,13 @@
         <v>62121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -4444,13 +4447,13 @@
         <v>141740</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4468,13 @@
         <v>43075</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H21" s="7">
         <v>83</v>
@@ -4480,13 +4483,13 @@
         <v>57612</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
@@ -4495,13 +4498,13 @@
         <v>100687</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4519,13 @@
         <v>7960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -4531,13 +4534,13 @@
         <v>14371</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -4546,13 +4549,13 @@
         <v>22331</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4623,13 @@
         <v>132469</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>128</v>
@@ -4635,13 +4638,13 @@
         <v>88293</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="M24" s="7">
         <v>311</v>
@@ -4650,13 +4653,13 @@
         <v>220762</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4674,13 @@
         <v>337168</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>427</v>
@@ -4686,13 +4689,13 @@
         <v>295580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>912</v>
@@ -4701,13 +4704,13 @@
         <v>632748</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4725,13 @@
         <v>142012</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H26" s="7">
         <v>236</v>
@@ -4737,13 +4740,13 @@
         <v>164829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>199</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>441</v>
@@ -4755,10 +4758,10 @@
         <v>14</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4776,13 @@
         <v>25169</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H27" s="7">
         <v>56</v>
@@ -4788,13 +4791,13 @@
         <v>38724</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M27" s="7">
         <v>92</v>
@@ -4803,13 +4806,13 @@
         <v>63893</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,7 +4868,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4885,7 +4888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4586022D-5E8F-4A78-8479-C9D05D15CD18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2B58CC-FDC1-478C-99F8-14A7D5177AF5}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4902,7 +4905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5009,13 +5012,13 @@
         <v>18557</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5024,13 +5027,13 @@
         <v>16135</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -5039,13 +5042,13 @@
         <v>34692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5063,13 @@
         <v>35431</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="H5" s="7">
         <v>60</v>
@@ -5075,13 +5078,13 @@
         <v>37544</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
@@ -5090,13 +5093,13 @@
         <v>72975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5114,13 @@
         <v>12691</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -5126,13 +5129,13 @@
         <v>14523</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>385</v>
+        <v>142</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5141,13 +5144,13 @@
         <v>27214</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5165,13 @@
         <v>1302</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5177,13 +5180,13 @@
         <v>6108</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5192,13 +5195,13 @@
         <v>7410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5269,13 @@
         <v>28084</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -5281,13 +5284,13 @@
         <v>26497</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>404</v>
+        <v>284</v>
       </c>
       <c r="M9" s="7">
         <v>87</v>
@@ -5296,13 +5299,13 @@
         <v>54581</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,13 +5320,13 @@
         <v>138352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H10" s="7">
         <v>159</v>
@@ -5332,13 +5335,13 @@
         <v>102483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>363</v>
@@ -5347,13 +5350,13 @@
         <v>240834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5371,13 @@
         <v>58935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H11" s="7">
         <v>80</v>
@@ -5383,13 +5386,13 @@
         <v>51290</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M11" s="7">
         <v>168</v>
@@ -5398,13 +5401,13 @@
         <v>110225</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5422,13 @@
         <v>10505</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
@@ -5434,13 +5437,13 @@
         <v>14847</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5449,13 +5452,13 @@
         <v>25352</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5526,13 @@
         <v>21954</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5538,13 +5541,13 @@
         <v>8288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5553,13 +5556,13 @@
         <v>30243</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5577,13 @@
         <v>84812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>132</v>
+        <v>446</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H15" s="7">
         <v>141</v>
@@ -5589,13 +5592,13 @@
         <v>97300</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
@@ -5604,13 +5607,13 @@
         <v>182112</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5628,13 @@
         <v>42948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>451</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -5640,13 +5643,13 @@
         <v>47315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
@@ -5655,13 +5658,13 @@
         <v>90264</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5679,13 @@
         <v>18697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -5691,13 +5694,13 @@
         <v>15177</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -5706,13 +5709,13 @@
         <v>33874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,7 +5771,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5780,13 +5783,13 @@
         <v>15700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -5795,13 +5798,13 @@
         <v>9236</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -5810,13 +5813,13 @@
         <v>24936</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5834,13 @@
         <v>75233</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>101</v>
@@ -5846,13 +5849,13 @@
         <v>72899</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -5861,13 +5864,13 @@
         <v>148131</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5885,13 @@
         <v>49911</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H21" s="7">
         <v>67</v>
@@ -5897,13 +5900,13 @@
         <v>45887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>490</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M21" s="7">
         <v>136</v>
@@ -5912,13 +5915,13 @@
         <v>95798</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5936,13 @@
         <v>11479</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H22" s="7">
         <v>24</v>
@@ -5948,13 +5951,13 @@
         <v>16464</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>499</v>
+        <v>15</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6043,7 +6046,7 @@
         <v>504</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H24" s="7">
         <v>96</v>
@@ -6052,13 +6055,13 @@
         <v>60156</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M24" s="7">
         <v>217</v>
@@ -6067,13 +6070,13 @@
         <v>144452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>43</v>
+        <v>510</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,13 +6091,13 @@
         <v>333828</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>511</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H25" s="7">
         <v>461</v>
@@ -6103,13 +6106,13 @@
         <v>310225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>940</v>
@@ -6118,13 +6121,13 @@
         <v>644053</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6139,13 +6142,13 @@
         <v>164485</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>519</v>
+        <v>72</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H26" s="7">
         <v>239</v>
@@ -6154,13 +6157,13 @@
         <v>159016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>474</v>
@@ -6169,13 +6172,13 @@
         <v>323501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6193,13 @@
         <v>41982</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>266</v>
+        <v>528</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H27" s="7">
         <v>78</v>
@@ -6205,13 +6208,13 @@
         <v>52596</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="M27" s="7">
         <v>135</v>
@@ -6220,13 +6223,13 @@
         <v>94579</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>532</v>
+        <v>332</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,7 +6285,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP31A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP31A-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9009E7A4-B4E8-4827-B4C6-30EA0757CCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1866A1BE-46DB-4BCF-A86D-96D0D78AD175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D224F421-2E0D-4781-929B-9032FDE2A484}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{BCE85567-A7FD-4763-8662-0C65EEDA6482}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="533">
   <si>
     <t>Menores según el número de vasos de leche consumidos por día en 2007 (Tasa respuesta: 84,41%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,1519 +73,1510 @@
     <t>3 ó más vasos/tazas</t>
   </si>
   <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
     <t>31,11%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
   </si>
   <si>
     <t>2 vasos/tazas</t>
   </si>
   <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
     <t>41,78%</t>
   </si>
   <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
   </si>
   <si>
     <t>46,29%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>1 vaso/taza</t>
   </si>
   <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>21,05%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>Menos de 1 vaso/taza</t>
   </si>
   <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>2,33%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>33,08%</t>
   </si>
   <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>Menores según el número de vasos de leche consumidos por día en 2016 (Tasa respuesta: 83,07%)</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2012 (Tasa respuesta: 83,66%)</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>Menores según el número de vasos de leche consumidos por día en 2016 (Tasa respuesta: 83,07%)</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>11,97%</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>53,45%</t>
   </si>
   <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>50,39%</t>
   </si>
   <si>
     <t>56,63%</t>
@@ -1594,55 +1585,58 @@
     <t>53,38%</t>
   </si>
   <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>9,23%</t>
+    <t>9,18%</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DACA9E8-F749-47C1-88BF-89ADE40389B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DDAC69-7929-4EDC-8E76-5CB0BDA4FEA0}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2172,10 +2166,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>21997</v>
+        <v>15931</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2187,10 +2181,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>15931</v>
+        <v>21997</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2223,10 +2217,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7">
-        <v>29545</v>
+        <v>32614</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2238,10 +2232,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I5" s="7">
-        <v>32614</v>
+        <v>29545</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2274,10 +2268,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>15967</v>
+        <v>12297</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2289,10 +2283,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>12297</v>
+        <v>15967</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2325,10 +2319,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>3204</v>
+        <v>2731</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -2340,10 +2334,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>2731</v>
+        <v>3204</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -2376,25 +2370,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>96</v>
+      </c>
+      <c r="D8" s="7">
+        <v>63573</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
         <v>107</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>70712</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7">
-        <v>63573</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2429,10 +2423,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>52126</v>
+        <v>43202</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -2444,10 +2438,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I9" s="7">
-        <v>43202</v>
+        <v>52126</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -2480,10 +2474,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D10" s="7">
-        <v>135970</v>
+        <v>139412</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -2495,10 +2489,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I10" s="7">
-        <v>139412</v>
+        <v>135970</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -2531,10 +2525,10 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>44877</v>
+        <v>40883</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -2546,10 +2540,10 @@
         <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>40883</v>
+        <v>44877</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -2582,10 +2576,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>4605</v>
+        <v>3889</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2597,10 +2591,10 @@
         <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>3889</v>
+        <v>4605</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2633,25 +2627,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>340</v>
+      </c>
+      <c r="D13" s="7">
+        <v>227387</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
         <v>358</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>237578</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>340</v>
-      </c>
-      <c r="I13" s="7">
-        <v>227387</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2686,10 +2680,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>30034</v>
+        <v>12124</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -2701,10 +2695,10 @@
         <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>12124</v>
+        <v>30034</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -2737,10 +2731,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D15" s="7">
-        <v>55805</v>
+        <v>49820</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -2752,10 +2746,10 @@
         <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>49820</v>
+        <v>55805</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>98</v>
@@ -2788,10 +2782,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D16" s="7">
-        <v>32791</v>
+        <v>40887</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>105</v>
@@ -2803,10 +2797,10 @@
         <v>107</v>
       </c>
       <c r="H16" s="7">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>40887</v>
+        <v>32791</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>108</v>
@@ -2839,34 +2833,34 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>5067</v>
+        <v>7610</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>7610</v>
+        <v>5067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2875,13 +2869,13 @@
         <v>12677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,25 +2884,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>165</v>
+      </c>
+      <c r="D18" s="7">
+        <v>110441</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
         <v>185</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>123697</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="7">
-        <v>165</v>
-      </c>
-      <c r="I18" s="7">
-        <v>110441</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2937,40 +2931,40 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7">
+        <v>19361</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="7">
         <v>61</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>41361</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="7">
-        <v>29</v>
-      </c>
-      <c r="I19" s="7">
-        <v>19361</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -2979,13 +2973,13 @@
         <v>60722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,34 +2988,34 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>111</v>
+      </c>
+      <c r="D20" s="7">
+        <v>74978</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="7">
         <v>137</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>89672</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="7">
-        <v>111</v>
-      </c>
-      <c r="I20" s="7">
-        <v>74978</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>248</v>
@@ -3030,13 +3024,13 @@
         <v>164650</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,34 +3039,34 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>68558</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="7">
         <v>65</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>43980</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>68558</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>165</v>
@@ -3081,13 +3075,13 @@
         <v>112538</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,34 +3090,34 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7">
+        <v>6822</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="7">
         <v>12</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>7956</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6822</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -3132,13 +3126,13 @@
         <v>14777</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,25 +3141,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>250</v>
+      </c>
+      <c r="D23" s="7">
+        <v>169718</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
         <v>275</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>182969</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
-        <v>250</v>
-      </c>
-      <c r="I23" s="7">
-        <v>169718</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -3200,25 +3194,25 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>136</v>
+      </c>
+      <c r="D24" s="7">
+        <v>90618</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="7">
         <v>218</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>145519</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" s="7">
-        <v>136</v>
-      </c>
-      <c r="I24" s="7">
-        <v>90618</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>162</v>
@@ -3251,10 +3245,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="D25" s="7">
-        <v>310992</v>
+        <v>296824</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>168</v>
@@ -3266,10 +3260,10 @@
         <v>170</v>
       </c>
       <c r="H25" s="7">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="I25" s="7">
-        <v>296824</v>
+        <v>310992</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>171</v>
@@ -3302,10 +3296,10 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="D26" s="7">
-        <v>137614</v>
+        <v>162624</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>177</v>
@@ -3317,10 +3311,10 @@
         <v>179</v>
       </c>
       <c r="H26" s="7">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="I26" s="7">
-        <v>162624</v>
+        <v>137614</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>180</v>
@@ -3356,25 +3350,25 @@
         <v>32</v>
       </c>
       <c r="D27" s="7">
-        <v>20830</v>
+        <v>21052</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>32</v>
       </c>
       <c r="I27" s="7">
-        <v>21052</v>
+        <v>20830</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>189</v>
@@ -3404,25 +3398,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>851</v>
+      </c>
+      <c r="D28" s="7">
+        <v>571118</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>925</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>614956</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="7">
-        <v>851</v>
-      </c>
-      <c r="I28" s="7">
-        <v>571118</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -3471,7 +3465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D88096E-9B86-41BC-95B1-53E837E89FD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C24D58-BE8A-4C92-BFDC-EAEB1C1F2C9E}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3589,10 +3583,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>27205</v>
+        <v>23499</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>196</v>
@@ -3604,10 +3598,10 @@
         <v>198</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7">
-        <v>23499</v>
+        <v>27205</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>199</v>
@@ -3640,10 +3634,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>40149</v>
+        <v>35480</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>205</v>
@@ -3655,10 +3649,10 @@
         <v>207</v>
       </c>
       <c r="H5" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I5" s="7">
-        <v>35480</v>
+        <v>40149</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>208</v>
@@ -3691,10 +3685,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>13171</v>
+        <v>18649</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>214</v>
@@ -3706,10 +3700,10 @@
         <v>216</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>18649</v>
+        <v>13171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>217</v>
@@ -3742,10 +3736,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>887</v>
+        <v>3747</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>223</v>
@@ -3757,10 +3751,10 @@
         <v>225</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>3747</v>
+        <v>887</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>226</v>
@@ -3793,25 +3787,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>124</v>
+      </c>
+      <c r="D8" s="7">
+        <v>81374</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
         <v>117</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>81413</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>124</v>
-      </c>
-      <c r="I8" s="7">
-        <v>81374</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -3846,28 +3840,28 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>56</v>
+      </c>
+      <c r="D9" s="7">
+        <v>38210</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="7">
         <v>67</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>49367</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="H9" s="7">
-        <v>56</v>
-      </c>
-      <c r="I9" s="7">
-        <v>38210</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>235</v>
@@ -3897,10 +3891,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D10" s="7">
-        <v>141047</v>
+        <v>119557</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>240</v>
@@ -3912,10 +3906,10 @@
         <v>242</v>
       </c>
       <c r="H10" s="7">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="I10" s="7">
-        <v>119557</v>
+        <v>141047</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>243</v>
@@ -3948,34 +3942,34 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>52715</v>
+        <v>49698</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>72</v>
+      </c>
+      <c r="I11" s="7">
+        <v>52715</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H11" s="7">
-        <v>71</v>
-      </c>
-      <c r="I11" s="7">
-        <v>49698</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>143</v>
@@ -3984,10 +3978,10 @@
         <v>102413</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>256</v>
@@ -3999,34 +3993,34 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>9126</v>
+        <v>14481</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>13</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9126</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="7">
-        <v>21</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14481</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -4035,13 +4029,13 @@
         <v>23606</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,25 +4044,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>320</v>
+      </c>
+      <c r="D13" s="7">
+        <v>221946</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
         <v>351</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>252255</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>320</v>
-      </c>
-      <c r="I13" s="7">
-        <v>221946</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -4103,34 +4097,34 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7">
+        <v>14614</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H14" s="7">
         <v>36</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>25040</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H14" s="7">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7">
-        <v>14614</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -4139,13 +4133,13 @@
         <v>39654</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,34 +4148,34 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
+        <v>112</v>
+      </c>
+      <c r="D15" s="7">
+        <v>78422</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="7">
         <v>110</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>76353</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H15" s="7">
-        <v>112</v>
-      </c>
-      <c r="I15" s="7">
-        <v>78423</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M15" s="7">
         <v>222</v>
@@ -4190,13 +4184,13 @@
         <v>154775</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,34 +4199,34 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38870</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="7">
         <v>49</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>33051</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H16" s="7">
-        <v>55</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38871</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -4241,13 +4235,13 @@
         <v>71921</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,34 +4250,34 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6126</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H17" s="7">
         <v>10</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>7196</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="H17" s="7">
-        <v>9</v>
-      </c>
-      <c r="I17" s="7">
-        <v>6126</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4292,13 +4286,13 @@
         <v>13322</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,25 +4301,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>196</v>
+      </c>
+      <c r="D18" s="7">
+        <v>138033</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
         <v>205</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>141640</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="7">
-        <v>196</v>
-      </c>
-      <c r="I18" s="7">
-        <v>138034</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -4354,40 +4348,40 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7">
+        <v>11970</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="7">
         <v>43</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>30857</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="H19" s="7">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7">
-        <v>11970</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -4396,13 +4390,13 @@
         <v>42827</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,34 +4405,34 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>87</v>
+      </c>
+      <c r="D20" s="7">
+        <v>62121</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H20" s="7">
         <v>116</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>79619</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H20" s="7">
-        <v>87</v>
-      </c>
-      <c r="I20" s="7">
-        <v>62121</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -4447,13 +4441,13 @@
         <v>141740</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,34 +4456,34 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
+        <v>83</v>
+      </c>
+      <c r="D21" s="7">
+        <v>57612</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" s="7">
         <v>65</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>43075</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H21" s="7">
-        <v>83</v>
-      </c>
-      <c r="I21" s="7">
-        <v>57612</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
@@ -4498,13 +4492,13 @@
         <v>100687</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,34 +4507,34 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="D22" s="7">
+        <v>14371</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H22" s="7">
         <v>12</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>7960</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H22" s="7">
-        <v>20</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14371</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -4549,13 +4543,13 @@
         <v>22331</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,25 +4558,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>207</v>
+      </c>
+      <c r="D23" s="7">
+        <v>146074</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
         <v>236</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>161510</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
-        <v>207</v>
-      </c>
-      <c r="I23" s="7">
-        <v>146074</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -4617,34 +4611,34 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>128</v>
+      </c>
+      <c r="D24" s="7">
+        <v>88293</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H24" s="7">
         <v>183</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>132469</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="H24" s="7">
-        <v>128</v>
-      </c>
-      <c r="I24" s="7">
-        <v>88293</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>311</v>
@@ -4653,7 +4647,7 @@
         <v>220762</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>342</v>
@@ -4668,10 +4662,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="D25" s="7">
-        <v>337168</v>
+        <v>295580</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>344</v>
@@ -4683,10 +4677,10 @@
         <v>346</v>
       </c>
       <c r="H25" s="7">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="I25" s="7">
-        <v>295580</v>
+        <v>337168</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>347</v>
@@ -4719,34 +4713,34 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="D26" s="7">
-        <v>142012</v>
+        <v>164829</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>205</v>
+      </c>
+      <c r="I26" s="7">
+        <v>142012</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H26" s="7">
-        <v>236</v>
-      </c>
-      <c r="I26" s="7">
-        <v>164829</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>441</v>
@@ -4755,13 +4749,13 @@
         <v>306841</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,34 +4764,34 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
+        <v>56</v>
+      </c>
+      <c r="D27" s="7">
+        <v>38724</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H27" s="7">
         <v>36</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>25169</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H27" s="7">
-        <v>56</v>
-      </c>
-      <c r="I27" s="7">
-        <v>38724</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>366</v>
+        <v>228</v>
       </c>
       <c r="M27" s="7">
         <v>92</v>
@@ -4806,13 +4800,13 @@
         <v>63893</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>368</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,25 +4815,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>847</v>
+      </c>
+      <c r="D28" s="7">
+        <v>587427</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>909</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>636818</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="7">
-        <v>847</v>
-      </c>
-      <c r="I28" s="7">
-        <v>587427</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -4888,7 +4882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2B58CC-FDC1-478C-99F8-14A7D5177AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4275B83-C6DA-4DF6-9016-6B32E31890D2}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4905,7 +4899,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5006,34 +5000,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16135</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="7">
         <v>29</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>18557</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16135</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M4" s="7">
         <v>55</v>
@@ -5042,13 +5036,13 @@
         <v>34692</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,34 +5051,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7">
+        <v>37544</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H5" s="7">
         <v>53</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>35431</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H5" s="7">
-        <v>60</v>
-      </c>
-      <c r="I5" s="7">
-        <v>37544</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
@@ -5093,13 +5087,13 @@
         <v>72975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,34 +5102,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7">
+        <v>14523</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>12691</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="H6" s="7">
-        <v>24</v>
-      </c>
-      <c r="I6" s="7">
-        <v>14523</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5144,13 +5138,13 @@
         <v>27214</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,34 +5153,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6108</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1302</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6108</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5195,13 +5189,13 @@
         <v>7410</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5210,25 +5204,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>120</v>
+      </c>
+      <c r="D8" s="7">
+        <v>74310</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
         <v>103</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>67981</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>120</v>
-      </c>
-      <c r="I8" s="7">
-        <v>74310</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5263,34 +5257,34 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
+        <v>45</v>
+      </c>
+      <c r="D9" s="7">
+        <v>26497</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="7">
         <v>42</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>28084</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="J9" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="H9" s="7">
-        <v>45</v>
-      </c>
-      <c r="I9" s="7">
-        <v>26497</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M9" s="7">
         <v>87</v>
@@ -5299,13 +5293,13 @@
         <v>54581</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,34 +5308,34 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
+        <v>159</v>
+      </c>
+      <c r="D10" s="7">
+        <v>102483</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H10" s="7">
         <v>204</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>138352</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="H10" s="7">
-        <v>159</v>
-      </c>
-      <c r="I10" s="7">
-        <v>102483</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>363</v>
@@ -5350,13 +5344,13 @@
         <v>240834</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,34 +5359,34 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7">
+        <v>51290</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H11" s="7">
         <v>88</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>58935</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="H11" s="7">
-        <v>80</v>
-      </c>
-      <c r="I11" s="7">
-        <v>51290</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M11" s="7">
         <v>168</v>
@@ -5401,13 +5395,13 @@
         <v>110225</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,34 +5410,34 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>14847</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="H12" s="7">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>10505</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>14847</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5452,13 +5446,13 @@
         <v>25352</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,25 +5461,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>307</v>
+      </c>
+      <c r="D13" s="7">
+        <v>195117</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
         <v>348</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>235876</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="7">
-        <v>307</v>
-      </c>
-      <c r="I13" s="7">
-        <v>195117</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -5520,34 +5514,34 @@
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8288</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="7">
         <v>29</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>21954</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="H14" s="7">
-        <v>12</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8288</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -5556,13 +5550,13 @@
         <v>30243</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,34 +5565,34 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
+        <v>141</v>
+      </c>
+      <c r="D15" s="7">
+        <v>97300</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H15" s="7">
         <v>120</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>84812</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="H15" s="7">
-        <v>141</v>
-      </c>
-      <c r="I15" s="7">
-        <v>97300</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M15" s="7">
         <v>261</v>
@@ -5607,13 +5601,13 @@
         <v>182112</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>453</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,34 +5616,34 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47315</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H16" s="7">
         <v>59</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>42948</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="H16" s="7">
-        <v>68</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47315</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
@@ -5658,13 +5652,13 @@
         <v>90264</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,34 +5667,34 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
+        <v>21</v>
+      </c>
+      <c r="D17" s="7">
+        <v>15177</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H17" s="7">
         <v>26</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>18697</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="H17" s="7">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15177</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -5709,13 +5703,13 @@
         <v>33874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,25 +5718,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>242</v>
+      </c>
+      <c r="D18" s="7">
+        <v>168080</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
         <v>234</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>168411</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="7">
-        <v>242</v>
-      </c>
-      <c r="I18" s="7">
-        <v>168080</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -5771,40 +5765,40 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>13</v>
+      </c>
+      <c r="D19" s="7">
+        <v>9236</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H19" s="7">
         <v>21</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>15700</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9236</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>475</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -5813,13 +5807,13 @@
         <v>24936</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,34 +5822,34 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
+        <v>101</v>
+      </c>
+      <c r="D20" s="7">
+        <v>72899</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H20" s="7">
         <v>102</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>75233</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="H20" s="7">
-        <v>101</v>
-      </c>
-      <c r="I20" s="7">
-        <v>72899</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>201</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
         <v>203</v>
@@ -5864,13 +5858,13 @@
         <v>148131</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,34 +5873,34 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
+        <v>67</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49911</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="H21" s="7">
-        <v>67</v>
-      </c>
-      <c r="I21" s="7">
-        <v>45887</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M21" s="7">
         <v>136</v>
@@ -5915,13 +5909,13 @@
         <v>95798</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,34 +5924,34 @@
         <v>40</v>
       </c>
       <c r="C22" s="7">
+        <v>24</v>
+      </c>
+      <c r="D22" s="7">
+        <v>16464</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H22" s="7">
         <v>15</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>11479</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="H22" s="7">
-        <v>24</v>
-      </c>
-      <c r="I22" s="7">
-        <v>16464</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -5966,13 +5960,13 @@
         <v>27943</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5981,25 +5975,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>205</v>
+      </c>
+      <c r="D23" s="7">
+        <v>144486</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
         <v>207</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>152323</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="7">
-        <v>205</v>
-      </c>
-      <c r="I23" s="7">
-        <v>144486</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6034,34 +6028,34 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>96</v>
+      </c>
+      <c r="D24" s="7">
+        <v>60156</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H24" s="7">
         <v>121</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>84296</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="H24" s="7">
-        <v>96</v>
-      </c>
-      <c r="I24" s="7">
-        <v>60156</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M24" s="7">
         <v>217</v>
@@ -6070,13 +6064,13 @@
         <v>144452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,34 +6079,34 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
+        <v>461</v>
+      </c>
+      <c r="D25" s="7">
+        <v>310225</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H25" s="7">
         <v>479</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>333828</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="H25" s="7">
-        <v>461</v>
-      </c>
-      <c r="I25" s="7">
-        <v>310225</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>940</v>
@@ -6121,13 +6115,13 @@
         <v>644053</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6136,34 +6130,34 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
+        <v>239</v>
+      </c>
+      <c r="D26" s="7">
+        <v>159016</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H26" s="7">
         <v>235</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>164485</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="H26" s="7">
-        <v>239</v>
-      </c>
-      <c r="I26" s="7">
-        <v>159016</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>474</v>
@@ -6172,13 +6166,13 @@
         <v>323501</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,34 +6181,34 @@
         <v>40</v>
       </c>
       <c r="C27" s="7">
+        <v>78</v>
+      </c>
+      <c r="D27" s="7">
+        <v>52596</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="H27" s="7">
         <v>57</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>41982</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="H27" s="7">
-        <v>78</v>
-      </c>
-      <c r="I27" s="7">
-        <v>52596</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>532</v>
       </c>
       <c r="M27" s="7">
         <v>135</v>
@@ -6223,13 +6217,13 @@
         <v>94579</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,25 +6232,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>874</v>
+      </c>
+      <c r="D28" s="7">
+        <v>581994</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="7">
         <v>892</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>624591</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="7">
-        <v>874</v>
-      </c>
-      <c r="I28" s="7">
-        <v>581994</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
